--- a/artfynd/A 63484-2019.xlsx
+++ b/artfynd/A 63484-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80469805</v>
+        <v>80469685</v>
       </c>
       <c r="B2" t="n">
-        <v>90645</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>714440.0440998246</v>
+        <v>714517.2209692324</v>
       </c>
       <c r="R2" t="n">
-        <v>6623501.154866487</v>
+        <v>6623428.185489144</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -769,11 +775,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80469685</v>
+        <v>80469695</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>90676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,36 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -850,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>714517.2209692324</v>
+        <v>714514.1731204849</v>
       </c>
       <c r="R3" t="n">
-        <v>6623428.185489144</v>
+        <v>6623437.117110151</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -923,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80469740</v>
+        <v>80469805</v>
       </c>
       <c r="B4" t="n">
-        <v>90676</v>
+        <v>90645</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +942,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +969,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>714373.2229025841</v>
+        <v>714440.0440998246</v>
       </c>
       <c r="R4" t="n">
-        <v>6623438.118456176</v>
+        <v>6623501.154866487</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1012,6 +1015,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1039,10 +1047,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80469729</v>
+        <v>80469740</v>
       </c>
       <c r="B5" t="n">
-        <v>56411</v>
+        <v>90676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,46 +1063,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>714421.0537466849</v>
+        <v>714373.2229025841</v>
       </c>
       <c r="R5" t="n">
-        <v>6623434.797179379</v>
+        <v>6623438.118456176</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1145,6 +1144,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80469761</v>
+        <v>80469729</v>
       </c>
       <c r="B6" t="n">
-        <v>90645</v>
+        <v>56411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,37 +1179,46 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>714390.1611933979</v>
+        <v>714421.0537466849</v>
       </c>
       <c r="R6" t="n">
-        <v>6623460.847534781</v>
+        <v>6623434.797179379</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,7 +1269,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1279,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80469731</v>
+        <v>80469761</v>
       </c>
       <c r="B7" t="n">
-        <v>103265</v>
+        <v>90645</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,42 +1299,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>714421.0537466849</v>
+        <v>714390.1611933979</v>
       </c>
       <c r="R7" t="n">
-        <v>6623434.797179379</v>
+        <v>6623460.847534781</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1396,10 +1403,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80469819</v>
+        <v>80469731</v>
       </c>
       <c r="B8" t="n">
-        <v>90661</v>
+        <v>103265</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,41 +1415,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2058</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>714455.1568480013</v>
+        <v>714421.0537466849</v>
       </c>
       <c r="R8" t="n">
-        <v>6623493.929075443</v>
+        <v>6623434.797179379</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1512,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80469789</v>
+        <v>80469819</v>
       </c>
       <c r="B9" t="n">
-        <v>90645</v>
+        <v>90661</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1524,25 +1532,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>2058</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1555,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>714409.7699023501</v>
+        <v>714455.1568480013</v>
       </c>
       <c r="R9" t="n">
-        <v>6623481.20045886</v>
+        <v>6623493.929075443</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1601,11 +1609,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1633,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80469792</v>
+        <v>80469789</v>
       </c>
       <c r="B10" t="n">
-        <v>5135</v>
+        <v>90645</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,36 +1648,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>105930</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1728,6 +1725,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1755,10 +1757,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80469829</v>
+        <v>80469792</v>
       </c>
       <c r="B11" t="n">
-        <v>90642</v>
+        <v>5135</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,49 +1769,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>105930</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>714526.0508117813</v>
+        <v>714409.7699023501</v>
       </c>
       <c r="R11" t="n">
-        <v>6623538.987286027</v>
+        <v>6623481.20045886</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80469832</v>
+        <v>80469829</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>90642</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1891,31 +1891,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>150</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1996,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80469695</v>
+        <v>80469832</v>
       </c>
       <c r="B13" t="n">
-        <v>90676</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2008,38 +2015,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>714514.1731204849</v>
+        <v>714526.0508117813</v>
       </c>
       <c r="R13" t="n">
-        <v>6623437.117110151</v>
+        <v>6623538.987286027</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>

--- a/artfynd/A 63484-2019.xlsx
+++ b/artfynd/A 63484-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80469685</v>
+        <v>80469805</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>90645</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,47 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>714517.2209692324</v>
+        <v>714440.0440998246</v>
       </c>
       <c r="R2" t="n">
-        <v>6623428.185489144</v>
+        <v>6623501.154866487</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -775,6 +769,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80469695</v>
+        <v>80469685</v>
       </c>
       <c r="B3" t="n">
-        <v>90676</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +813,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>714514.1731204849</v>
+        <v>714517.2209692324</v>
       </c>
       <c r="R3" t="n">
-        <v>6623437.117110151</v>
+        <v>6623428.185489144</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -926,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80469805</v>
+        <v>80469740</v>
       </c>
       <c r="B4" t="n">
-        <v>90645</v>
+        <v>90676</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -969,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>714440.0440998246</v>
+        <v>714373.2229025841</v>
       </c>
       <c r="R4" t="n">
-        <v>6623501.154866487</v>
+        <v>6623438.118456176</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1015,11 +1012,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1047,10 +1039,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80469740</v>
+        <v>80469729</v>
       </c>
       <c r="B5" t="n">
-        <v>90676</v>
+        <v>56411</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,37 +1055,46 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>714373.2229025841</v>
+        <v>714421.0537466849</v>
       </c>
       <c r="R5" t="n">
-        <v>6623438.118456176</v>
+        <v>6623434.797179379</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,7 +1145,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80469729</v>
+        <v>80469761</v>
       </c>
       <c r="B6" t="n">
-        <v>56411</v>
+        <v>90645</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,46 +1179,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>714421.0537466849</v>
+        <v>714390.1611933979</v>
       </c>
       <c r="R6" t="n">
-        <v>6623434.797179379</v>
+        <v>6623460.847534781</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1269,6 +1260,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1287,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80469761</v>
+        <v>80469731</v>
       </c>
       <c r="B7" t="n">
-        <v>90645</v>
+        <v>103265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,41 +1291,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>714390.1611933979</v>
+        <v>714421.0537466849</v>
       </c>
       <c r="R7" t="n">
-        <v>6623460.847534781</v>
+        <v>6623434.797179379</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1403,10 +1396,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80469731</v>
+        <v>80469819</v>
       </c>
       <c r="B8" t="n">
-        <v>103265</v>
+        <v>90661</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,42 +1408,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>2058</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Getängsjön, N om, Upl</t>
+          <t>Getängsjön, V om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>714421.0537466849</v>
+        <v>714455.1568480013</v>
       </c>
       <c r="R8" t="n">
-        <v>6623434.797179379</v>
+        <v>6623493.929075443</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1520,10 +1512,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80469819</v>
+        <v>80469789</v>
       </c>
       <c r="B9" t="n">
-        <v>90661</v>
+        <v>90645</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,25 +1524,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2058</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1563,10 +1555,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>714455.1568480013</v>
+        <v>714409.7699023501</v>
       </c>
       <c r="R9" t="n">
-        <v>6623493.929075443</v>
+        <v>6623481.20045886</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1609,6 +1601,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1636,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80469789</v>
+        <v>80469792</v>
       </c>
       <c r="B10" t="n">
-        <v>90645</v>
+        <v>5135</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,30 +1645,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>105930</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1725,11 +1728,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1757,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80469792</v>
+        <v>80469829</v>
       </c>
       <c r="B11" t="n">
-        <v>5135</v>
+        <v>90642</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1769,47 +1767,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>105930</v>
+        <v>150</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Getängsjön, V om, Upl</t>
+          <t>Getängsjön, N om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>714409.7699023501</v>
+        <v>714526.0508117813</v>
       </c>
       <c r="R11" t="n">
-        <v>6623481.20045886</v>
+        <v>6623538.987286027</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80469829</v>
+        <v>80469832</v>
       </c>
       <c r="B12" t="n">
-        <v>90642</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1891,38 +1891,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>150</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2003,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80469832</v>
+        <v>80469695</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>90676</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,31 +2008,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>714526.0508117813</v>
+        <v>714514.1731204849</v>
       </c>
       <c r="R13" t="n">
-        <v>6623538.987286027</v>
+        <v>6623437.117110151</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
